--- a/doc/Competency Assessment Form 24-25 (TH).xlsx
+++ b/doc/Competency Assessment Form 24-25 (TH).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sirikanyap\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_xampp\htdocs\ipc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" tabRatio="732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6468" tabRatio="732" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Assessment Form" sheetId="3" r:id="rId1"/>
@@ -28,18 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="139">
-  <si>
-    <t>ฝ่าย________________________________</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="151">
   <si>
     <t>Competency</t>
-  </si>
-  <si>
-    <t>ชื่อ___________________________________</t>
-  </si>
-  <si>
-    <t>ตำแหน่ง________________________________</t>
   </si>
   <si>
     <t>Gap</t>
@@ -221,9 +212,6 @@
     <t>แบบประเมิน CORE COMPETENCY</t>
   </si>
   <si>
-    <t>ระดับงาน___________________________</t>
-  </si>
-  <si>
     <t>รวม</t>
   </si>
   <si>
@@ -539,9 +527,6 @@
     <t xml:space="preserve">Employee Name </t>
   </si>
   <si>
-    <t xml:space="preserve">ชื่อ </t>
-  </si>
-  <si>
     <t>Position (ตำแหน่ง)</t>
   </si>
   <si>
@@ -555,6 +540,57 @@
   </si>
   <si>
     <t>* พนักงานเป็นทีมงานPartnership for Success ปี 2024/2025</t>
+  </si>
+  <si>
+    <t>ชื่อ  ณัฏฐพัชร สุนทรเพิ่มทรัพย์</t>
+  </si>
+  <si>
+    <t>ฝ่าย___IT__________________________</t>
+  </si>
+  <si>
+    <t>ตำแหน่ง__Assistant Application Support Manager__</t>
+  </si>
+  <si>
+    <t>ระดับงาน___6_______________________</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>……………………………………………</t>
+  </si>
+  <si>
+    <t>(.............. ภูวดล กณิกนันต์ ...............)</t>
+  </si>
+  <si>
+    <t>( ... ณัฏฐพัชร สุนทรเพิ่มทรัพย์ ... )</t>
+  </si>
+  <si>
+    <t>(............ ภูวดล กณิกนันต์ ............)</t>
+  </si>
+  <si>
+    <t>Position : ……Senior Manager…</t>
+  </si>
+  <si>
+    <t>ชื่อ__ณัฏฐพัชร สุนทรเพิ่มทรัพย์______</t>
+  </si>
+  <si>
+    <t>ฝ่าย___IT___________________________</t>
+  </si>
+  <si>
+    <t>ตำแหน่ง__Assistant Application Support Manager_____</t>
+  </si>
+  <si>
+    <t>ระดับงาน_____6_____________________</t>
+  </si>
+  <si>
+    <t>…………………………………………</t>
+  </si>
+  <si>
+    <t>(......... ภูวดล กณิกนันต์ ...........)</t>
+  </si>
+  <si>
+    <t>Position : …Senior Manager ………</t>
   </si>
 </sst>
 </file>
@@ -2361,24 +2397,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="72.36328125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="14" customWidth="1"/>
-    <col min="5" max="7" width="10.6328125" style="14" customWidth="1"/>
-    <col min="8" max="9" width="8.36328125" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9.08984375" style="19"/>
+    <col min="1" max="1" width="72.33203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="14" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" style="14" customWidth="1"/>
+    <col min="8" max="9" width="8.33203125" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="144" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B1" s="145"/>
       <c r="C1" s="145"/>
@@ -2398,16 +2434,16 @@
     </row>
     <row r="3" spans="1:9" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="158" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G3" s="159"/>
     </row>
@@ -2418,16 +2454,16 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="158" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G4" s="159"/>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2446,42 +2482,42 @@
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="154" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="147" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C7" s="148"/>
       <c r="D7" s="156" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E7" s="151" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" s="152"/>
       <c r="G7" s="153"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="155"/>
       <c r="B8" s="149"/>
       <c r="C8" s="150"/>
       <c r="D8" s="157"/>
       <c r="E8" s="82" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F8" s="83" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="73" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -2494,13 +2530,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="74" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="119">
         <f>'CC Eva (TH)'!L18</f>
-        <v>0</v>
+        <v>3.8571428571428572</v>
       </c>
       <c r="E10" s="113"/>
       <c r="F10" s="87"/>
@@ -2510,13 +2546,13 @@
     </row>
     <row r="11" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="119">
         <f>'CC Eva (TH)'!L25</f>
-        <v>0</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="E11" s="113"/>
       <c r="F11" s="87"/>
@@ -2525,13 +2561,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="119">
         <f>'CC Eva (TH)'!L32</f>
-        <v>0</v>
+        <v>3.8571428571428572</v>
       </c>
       <c r="E12" s="113"/>
       <c r="F12" s="87"/>
@@ -2541,13 +2577,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="119">
         <f>'CC Eva (TH)'!L38</f>
-        <v>0</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="E13" s="113"/>
       <c r="F13" s="87"/>
@@ -2557,13 +2593,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="74" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="119">
         <f>'CC Eva (TH)'!L44</f>
-        <v>0</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="E14" s="113"/>
       <c r="F14" s="87"/>
@@ -2571,15 +2607,15 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="75"/>
       <c r="B15" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C15" s="104"/>
       <c r="D15" s="120">
         <f>AVERAGE(D10:D14)</f>
-        <v>0</v>
+        <v>4.0857142857142854</v>
       </c>
       <c r="E15" s="114"/>
       <c r="F15" s="89"/>
@@ -2587,9 +2623,9 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="76" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -2602,35 +2638,35 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="119">
         <f>'MC Eva (TH)'!L20</f>
-        <v>0</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="E17" s="112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G17" s="86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="74" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="119">
         <f>'MC Eva (TH)'!L26</f>
-        <v>0</v>
+        <v>3.7142857142857144</v>
       </c>
       <c r="E18" s="113"/>
       <c r="F18" s="87"/>
@@ -2640,13 +2676,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="119">
         <f>'MC Eva (TH)'!L32</f>
-        <v>0</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="E19" s="113"/>
       <c r="F19" s="87"/>
@@ -2656,13 +2692,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="119">
         <f>'MC Eva (TH)'!L38</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="113"/>
       <c r="F20" s="87"/>
@@ -2672,13 +2708,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="119">
         <f>'MC Eva (TH)'!L44</f>
-        <v>0</v>
+        <v>3.7142857142857144</v>
       </c>
       <c r="E21" s="113"/>
       <c r="F21" s="87"/>
@@ -2686,15 +2722,15 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="78"/>
       <c r="B22" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C22" s="104"/>
       <c r="D22" s="120">
         <f>AVERAGE(D17:D21)</f>
-        <v>0</v>
+        <v>3.342857142857143</v>
       </c>
       <c r="E22" s="114"/>
       <c r="F22" s="89"/>
@@ -2702,9 +2738,9 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="76" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -2800,10 +2836,10 @@
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
     </row>
-    <row r="29" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="81"/>
       <c r="B29" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C29" s="104"/>
       <c r="D29" s="120">
@@ -2819,11 +2855,11 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -2833,11 +2869,11 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -2849,12 +2885,12 @@
       <c r="A32" s="1"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G32" s="28"/>
     </row>
@@ -2869,22 +2905,22 @@
     </row>
     <row r="34" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G34" s="28"/>
     </row>
     <row r="35" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -2895,16 +2931,16 @@
     </row>
     <row r="36" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G36" s="28"/>
     </row>
@@ -2939,24 +2975,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" style="14" customWidth="1"/>
-    <col min="2" max="2" width="3.453125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="2.54296875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="2.5546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="12" style="14" customWidth="1"/>
-    <col min="5" max="11" width="4.6328125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="7.6328125" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="9.08984375" style="14"/>
+    <col min="5" max="11" width="4.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="160" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="161"/>
       <c r="C1" s="161"/>
@@ -2972,12 +3008,12 @@
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="E2" s="11" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -2991,12 +3027,12 @@
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -3031,7 +3067,7 @@
     </row>
     <row r="6" spans="1:14" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -3048,12 +3084,12 @@
     </row>
     <row r="7" spans="1:14" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
@@ -3065,14 +3101,14 @@
       <c r="L7" s="34"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:14" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
@@ -3083,14 +3119,14 @@
       <c r="K8" s="33"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
@@ -3101,14 +3137,14 @@
       <c r="K9" s="33"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="1:14" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
@@ -3139,7 +3175,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="163" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="164"/>
       <c r="G12" s="164"/>
@@ -3148,12 +3184,12 @@
       <c r="J12" s="164"/>
       <c r="K12" s="165"/>
       <c r="L12" s="38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -3183,7 +3219,7 @@
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -3192,14 +3228,16 @@
       <c r="F14" s="121"/>
       <c r="G14" s="121"/>
       <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
+      <c r="I14" s="121">
+        <v>5</v>
+      </c>
       <c r="J14" s="121"/>
       <c r="K14" s="122"/>
       <c r="L14" s="75"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -3209,13 +3247,15 @@
       <c r="G15" s="123"/>
       <c r="H15" s="123"/>
       <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
+      <c r="J15" s="123">
+        <v>6</v>
+      </c>
       <c r="K15" s="124"/>
       <c r="L15" s="75"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
@@ -3225,16 +3265,18 @@
       <c r="G16" s="123"/>
       <c r="H16" s="123"/>
       <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
+      <c r="J16" s="123">
+        <v>6</v>
+      </c>
       <c r="K16" s="124"/>
       <c r="L16" s="75"/>
       <c r="M16" s="14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
@@ -3243,14 +3285,16 @@
       <c r="F17" s="123"/>
       <c r="G17" s="123"/>
       <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
+      <c r="I17" s="123">
+        <v>5</v>
+      </c>
       <c r="J17" s="123"/>
       <c r="K17" s="124"/>
       <c r="L17" s="75"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="60" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -3259,40 +3303,44 @@
       <c r="F18" s="125"/>
       <c r="G18" s="125"/>
       <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
+      <c r="I18" s="125">
+        <v>5</v>
+      </c>
       <c r="J18" s="125"/>
       <c r="K18" s="126"/>
       <c r="L18" s="71">
         <f>SUM(E14:K18)/7</f>
-        <v>0</v>
+        <v>3.8571428571428572</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="62" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
       <c r="E19" s="39"/>
       <c r="F19" s="40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G19" s="40"/>
-      <c r="H19" s="39"/>
+      <c r="H19" s="39" t="s">
+        <v>138</v>
+      </c>
       <c r="I19" s="40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
       <c r="L19" s="72"/>
     </row>
-    <row r="20" spans="1:13" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B20" s="65"/>
       <c r="C20" s="65"/>
@@ -3322,7 +3370,7 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -3332,13 +3380,15 @@
       <c r="G21" s="123"/>
       <c r="H21" s="123"/>
       <c r="I21" s="123"/>
-      <c r="J21" s="122"/>
+      <c r="J21" s="122">
+        <v>6</v>
+      </c>
       <c r="K21" s="124"/>
       <c r="L21" s="75"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -3348,13 +3398,15 @@
       <c r="G22" s="123"/>
       <c r="H22" s="123"/>
       <c r="I22" s="123"/>
-      <c r="J22" s="124"/>
+      <c r="J22" s="124">
+        <v>6</v>
+      </c>
       <c r="K22" s="124"/>
       <c r="L22" s="75"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -3364,13 +3416,15 @@
       <c r="G23" s="123"/>
       <c r="H23" s="123"/>
       <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
+      <c r="J23" s="124">
+        <v>6</v>
+      </c>
       <c r="K23" s="124"/>
       <c r="L23" s="75"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -3380,13 +3434,15 @@
       <c r="G24" s="123"/>
       <c r="H24" s="123"/>
       <c r="I24" s="123"/>
-      <c r="J24" s="124"/>
+      <c r="J24" s="124">
+        <v>6</v>
+      </c>
       <c r="K24" s="124"/>
       <c r="L24" s="75"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -3396,16 +3452,18 @@
       <c r="G25" s="125"/>
       <c r="H25" s="125"/>
       <c r="I25" s="125"/>
-      <c r="J25" s="126"/>
+      <c r="J25" s="126">
+        <v>6</v>
+      </c>
       <c r="K25" s="126"/>
       <c r="L25" s="71">
         <f>SUM(E21:K25)/7</f>
-        <v>0</v>
+        <v>4.2857142857142856</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="66" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B26" s="63"/>
       <c r="C26" s="63"/>
@@ -3421,7 +3479,7 @@
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="64" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
@@ -3451,7 +3509,7 @@
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B28" s="61"/>
       <c r="C28" s="61"/>
@@ -3460,14 +3518,16 @@
       <c r="F28" s="123"/>
       <c r="G28" s="123"/>
       <c r="H28" s="123"/>
-      <c r="I28" s="122"/>
+      <c r="I28" s="122">
+        <v>5</v>
+      </c>
       <c r="J28" s="123"/>
       <c r="K28" s="124"/>
       <c r="L28" s="75"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -3477,13 +3537,15 @@
       <c r="G29" s="123"/>
       <c r="H29" s="123"/>
       <c r="I29" s="124"/>
-      <c r="J29" s="123"/>
+      <c r="J29" s="123">
+        <v>6</v>
+      </c>
       <c r="K29" s="124"/>
       <c r="L29" s="75"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B30" s="61"/>
       <c r="C30" s="61"/>
@@ -3493,13 +3555,15 @@
       <c r="G30" s="123"/>
       <c r="H30" s="123"/>
       <c r="I30" s="124"/>
-      <c r="J30" s="123"/>
+      <c r="J30" s="123">
+        <v>6</v>
+      </c>
       <c r="K30" s="124"/>
       <c r="L30" s="75"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="60" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31" s="61"/>
       <c r="C31" s="61"/>
@@ -3508,14 +3572,16 @@
       <c r="F31" s="123"/>
       <c r="G31" s="123"/>
       <c r="H31" s="123"/>
-      <c r="I31" s="124"/>
+      <c r="I31" s="124">
+        <v>5</v>
+      </c>
       <c r="J31" s="123"/>
       <c r="K31" s="124"/>
       <c r="L31" s="75"/>
     </row>
     <row r="32" spans="1:13" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="66" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B32" s="63"/>
       <c r="C32" s="63"/>
@@ -3524,17 +3590,19 @@
       <c r="F32" s="127"/>
       <c r="G32" s="127"/>
       <c r="H32" s="127"/>
-      <c r="I32" s="126"/>
+      <c r="I32" s="126">
+        <v>5</v>
+      </c>
       <c r="J32" s="127"/>
       <c r="K32" s="128"/>
       <c r="L32" s="71">
         <f>SUM(E28:K32)/7</f>
-        <v>0</v>
+        <v>3.8571428571428572</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
@@ -3564,7 +3632,7 @@
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B34" s="61"/>
       <c r="C34" s="61"/>
@@ -3574,13 +3642,15 @@
       <c r="G34" s="123"/>
       <c r="H34" s="123"/>
       <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
+      <c r="J34" s="123">
+        <v>6</v>
+      </c>
       <c r="K34" s="124"/>
       <c r="L34" s="75"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B35" s="61"/>
       <c r="C35" s="61"/>
@@ -3590,13 +3660,15 @@
       <c r="G35" s="123"/>
       <c r="H35" s="123"/>
       <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
+      <c r="J35" s="123">
+        <v>6</v>
+      </c>
       <c r="K35" s="124"/>
       <c r="L35" s="75"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B36" s="61"/>
       <c r="C36" s="61"/>
@@ -3606,13 +3678,15 @@
       <c r="G36" s="123"/>
       <c r="H36" s="123"/>
       <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
+      <c r="J36" s="123">
+        <v>6</v>
+      </c>
       <c r="K36" s="124"/>
       <c r="L36" s="75"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="60" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B37" s="61"/>
       <c r="C37" s="61"/>
@@ -3622,13 +3696,15 @@
       <c r="G37" s="123"/>
       <c r="H37" s="123"/>
       <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
+      <c r="J37" s="123">
+        <v>6</v>
+      </c>
       <c r="K37" s="124"/>
       <c r="L37" s="75"/>
     </row>
     <row r="38" spans="1:12" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="66" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B38" s="63"/>
       <c r="C38" s="63"/>
@@ -3638,16 +3714,18 @@
       <c r="G38" s="127"/>
       <c r="H38" s="127"/>
       <c r="I38" s="127"/>
-      <c r="J38" s="127"/>
+      <c r="J38" s="127">
+        <v>6</v>
+      </c>
       <c r="K38" s="128"/>
       <c r="L38" s="71">
         <f>SUM(E34:K38)/7</f>
-        <v>0</v>
+        <v>4.2857142857142856</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B39" s="65"/>
       <c r="C39" s="65"/>
@@ -3677,7 +3755,7 @@
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
@@ -3687,13 +3765,15 @@
       <c r="G40" s="123"/>
       <c r="H40" s="123"/>
       <c r="I40" s="123"/>
-      <c r="J40" s="123"/>
+      <c r="J40" s="123">
+        <v>6</v>
+      </c>
       <c r="K40" s="124"/>
       <c r="L40" s="75"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B41" s="61"/>
       <c r="C41" s="61"/>
@@ -3703,13 +3783,15 @@
       <c r="G41" s="123"/>
       <c r="H41" s="123"/>
       <c r="I41" s="123"/>
-      <c r="J41" s="123"/>
+      <c r="J41" s="123">
+        <v>6</v>
+      </c>
       <c r="K41" s="124"/>
       <c r="L41" s="75"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B42" s="61"/>
       <c r="C42" s="61"/>
@@ -3718,14 +3800,16 @@
       <c r="F42" s="123"/>
       <c r="G42" s="123"/>
       <c r="H42" s="123"/>
-      <c r="I42" s="123"/>
+      <c r="I42" s="123">
+        <v>5</v>
+      </c>
       <c r="J42" s="123"/>
       <c r="K42" s="124"/>
       <c r="L42" s="75"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="60" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B43" s="61"/>
       <c r="C43" s="61"/>
@@ -3735,13 +3819,15 @@
       <c r="G43" s="123"/>
       <c r="H43" s="123"/>
       <c r="I43" s="123"/>
-      <c r="J43" s="123"/>
+      <c r="J43" s="123">
+        <v>6</v>
+      </c>
       <c r="K43" s="124"/>
       <c r="L43" s="75"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="66" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B44" s="63"/>
       <c r="C44" s="63"/>
@@ -3751,31 +3837,33 @@
       <c r="G44" s="127"/>
       <c r="H44" s="127"/>
       <c r="I44" s="127"/>
-      <c r="J44" s="127"/>
+      <c r="J44" s="127">
+        <v>6</v>
+      </c>
       <c r="K44" s="128"/>
       <c r="L44" s="70">
         <f>SUM(E40:K44)/7</f>
-        <v>0</v>
+        <v>4.1428571428571432</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="105"/>
       <c r="D46" s="106"/>
     </row>
-    <row r="47" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="43" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B48" s="166" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C48" s="167"/>
       <c r="D48" s="167"/>
       <c r="E48" s="167"/>
       <c r="F48" s="168"/>
       <c r="G48" s="167" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H48" s="167"/>
       <c r="I48" s="167"/>
@@ -3813,17 +3901,17 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="49" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C51" s="51"/>
       <c r="D51" s="51"/>
       <c r="E51" s="51"/>
       <c r="F51" s="52"/>
       <c r="G51" s="51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H51" s="51"/>
       <c r="I51" s="51"/>
@@ -3833,17 +3921,17 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="49" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C52" s="51"/>
       <c r="D52" s="51"/>
       <c r="E52" s="51"/>
       <c r="F52" s="52"/>
       <c r="G52" s="51" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
@@ -3853,10 +3941,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
@@ -3869,19 +3957,19 @@
       <c r="K53" s="51"/>
       <c r="L53" s="52"/>
     </row>
-    <row r="54" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="54"/>
       <c r="C54" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D54" s="56"/>
       <c r="E54" s="56"/>
       <c r="F54" s="57"/>
       <c r="G54" s="56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H54" s="56"/>
       <c r="I54" s="56"/>
@@ -3906,24 +3994,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:L54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" style="14" customWidth="1"/>
-    <col min="2" max="2" width="3.453125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="2.54296875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="2.5546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="15" style="14" customWidth="1"/>
-    <col min="5" max="11" width="4.6328125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="5.54296875" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="9.08984375" style="14"/>
+    <col min="5" max="11" width="4.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="169" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="170"/>
       <c r="C1" s="170"/>
@@ -3953,13 +4041,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -3989,13 +4077,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -4007,7 +4095,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4027,9 +4115,9 @@
       <c r="A7" s="10"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:14" s="35" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -4043,14 +4131,14 @@
       <c r="K8" s="33"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
@@ -4061,14 +4149,14 @@
       <c r="K9" s="33"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="1:14" s="35" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
@@ -4079,14 +4167,14 @@
       <c r="K10" s="33"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="1:14" s="35" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
@@ -4097,14 +4185,14 @@
       <c r="K11" s="33"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="1:14" s="35" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
@@ -4135,7 +4223,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="163" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F14" s="164"/>
       <c r="G14" s="164"/>
@@ -4144,12 +4232,12 @@
       <c r="J14" s="164"/>
       <c r="K14" s="165"/>
       <c r="L14" s="107" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -4179,7 +4267,7 @@
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
@@ -4187,7 +4275,9 @@
       <c r="E16" s="121"/>
       <c r="F16" s="121"/>
       <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
+      <c r="H16" s="121">
+        <v>4</v>
+      </c>
       <c r="I16" s="121"/>
       <c r="J16" s="121"/>
       <c r="K16" s="122"/>
@@ -4195,7 +4285,7 @@
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
@@ -4204,14 +4294,16 @@
       <c r="F17" s="123"/>
       <c r="G17" s="123"/>
       <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
+      <c r="I17" s="123">
+        <v>5</v>
+      </c>
       <c r="J17" s="123"/>
       <c r="K17" s="124"/>
       <c r="L17" s="75"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -4220,14 +4312,16 @@
       <c r="F18" s="123"/>
       <c r="G18" s="123"/>
       <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
+      <c r="I18" s="123">
+        <v>5</v>
+      </c>
       <c r="J18" s="123"/>
       <c r="K18" s="124"/>
       <c r="L18" s="75"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -4236,14 +4330,16 @@
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
+      <c r="I19" s="123">
+        <v>5</v>
+      </c>
       <c r="J19" s="123"/>
       <c r="K19" s="124"/>
       <c r="L19" s="75"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="60" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -4252,17 +4348,19 @@
       <c r="F20" s="125"/>
       <c r="G20" s="125"/>
       <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
+      <c r="I20" s="125">
+        <v>5</v>
+      </c>
       <c r="J20" s="125"/>
       <c r="K20" s="126"/>
       <c r="L20" s="71">
         <f>SUM(E16:K20)/7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
@@ -4292,7 +4390,7 @@
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -4301,14 +4399,16 @@
       <c r="F22" s="123"/>
       <c r="G22" s="123"/>
       <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
+      <c r="I22" s="123">
+        <v>5</v>
+      </c>
       <c r="J22" s="123"/>
       <c r="K22" s="124"/>
       <c r="L22" s="75"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -4317,14 +4417,16 @@
       <c r="F23" s="123"/>
       <c r="G23" s="123"/>
       <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
+      <c r="I23" s="123">
+        <v>5</v>
+      </c>
       <c r="J23" s="123"/>
       <c r="K23" s="124"/>
       <c r="L23" s="75"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -4333,14 +4435,16 @@
       <c r="F24" s="123"/>
       <c r="G24" s="123"/>
       <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
+      <c r="I24" s="123">
+        <v>5</v>
+      </c>
       <c r="J24" s="123"/>
       <c r="K24" s="124"/>
       <c r="L24" s="75"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -4349,14 +4453,16 @@
       <c r="F25" s="123"/>
       <c r="G25" s="123"/>
       <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
+      <c r="I25" s="123">
+        <v>5</v>
+      </c>
       <c r="J25" s="123"/>
       <c r="K25" s="124"/>
       <c r="L25" s="75"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="60" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="61"/>
@@ -4366,16 +4472,18 @@
       <c r="G26" s="125"/>
       <c r="H26" s="125"/>
       <c r="I26" s="125"/>
-      <c r="J26" s="125"/>
+      <c r="J26" s="125">
+        <v>6</v>
+      </c>
       <c r="K26" s="126"/>
       <c r="L26" s="71">
         <f>SUM(E22:K26)/7</f>
-        <v>0</v>
+        <v>3.7142857142857144</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="64" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
@@ -4405,7 +4513,7 @@
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B28" s="61"/>
       <c r="C28" s="61"/>
@@ -4413,18 +4521,20 @@
       <c r="E28" s="123"/>
       <c r="F28" s="123"/>
       <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
+      <c r="H28" s="123">
+        <v>4</v>
+      </c>
       <c r="I28" s="123"/>
       <c r="J28" s="123"/>
       <c r="K28" s="124"/>
       <c r="L28" s="75"/>
       <c r="P28" s="14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -4432,7 +4542,9 @@
       <c r="E29" s="123"/>
       <c r="F29" s="123"/>
       <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
+      <c r="H29" s="123">
+        <v>4</v>
+      </c>
       <c r="I29" s="123"/>
       <c r="J29" s="123"/>
       <c r="K29" s="124"/>
@@ -4440,7 +4552,7 @@
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B30" s="61"/>
       <c r="C30" s="61"/>
@@ -4448,7 +4560,9 @@
       <c r="E30" s="123"/>
       <c r="F30" s="123"/>
       <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
+      <c r="H30" s="123">
+        <v>4</v>
+      </c>
       <c r="I30" s="123"/>
       <c r="J30" s="123"/>
       <c r="K30" s="124"/>
@@ -4456,7 +4570,7 @@
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="60" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B31" s="61"/>
       <c r="C31" s="61"/>
@@ -4464,7 +4578,9 @@
       <c r="E31" s="123"/>
       <c r="F31" s="123"/>
       <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
+      <c r="H31" s="123">
+        <v>4</v>
+      </c>
       <c r="I31" s="123"/>
       <c r="J31" s="123"/>
       <c r="K31" s="124"/>
@@ -4472,7 +4588,7 @@
     </row>
     <row r="32" spans="1:16" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="66" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B32" s="63"/>
       <c r="C32" s="63"/>
@@ -4480,18 +4596,20 @@
       <c r="E32" s="127"/>
       <c r="F32" s="127"/>
       <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
+      <c r="H32" s="123">
+        <v>4</v>
+      </c>
       <c r="I32" s="127"/>
       <c r="J32" s="127"/>
       <c r="K32" s="128"/>
       <c r="L32" s="71">
         <f>SUM(E28:K32)/7</f>
-        <v>0</v>
+        <v>2.8571428571428572</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="64" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
@@ -4521,7 +4639,7 @@
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B34" s="61"/>
       <c r="C34" s="61"/>
@@ -4529,7 +4647,9 @@
       <c r="E34" s="123"/>
       <c r="F34" s="123"/>
       <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
+      <c r="H34" s="123">
+        <v>4</v>
+      </c>
       <c r="I34" s="123"/>
       <c r="J34" s="123"/>
       <c r="K34" s="124"/>
@@ -4537,7 +4657,7 @@
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B35" s="61"/>
       <c r="C35" s="61"/>
@@ -4545,7 +4665,9 @@
       <c r="E35" s="123"/>
       <c r="F35" s="123"/>
       <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
+      <c r="H35" s="123">
+        <v>4</v>
+      </c>
       <c r="I35" s="123"/>
       <c r="J35" s="123"/>
       <c r="K35" s="124"/>
@@ -4553,7 +4675,7 @@
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B36" s="61"/>
       <c r="C36" s="61"/>
@@ -4561,7 +4683,9 @@
       <c r="E36" s="123"/>
       <c r="F36" s="123"/>
       <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
+      <c r="H36" s="123">
+        <v>4</v>
+      </c>
       <c r="I36" s="123"/>
       <c r="J36" s="123"/>
       <c r="K36" s="124"/>
@@ -4569,7 +4693,7 @@
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="60" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B37" s="61"/>
       <c r="C37" s="61"/>
@@ -4577,7 +4701,9 @@
       <c r="E37" s="123"/>
       <c r="F37" s="123"/>
       <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
+      <c r="H37" s="123">
+        <v>4</v>
+      </c>
       <c r="I37" s="123"/>
       <c r="J37" s="123"/>
       <c r="K37" s="124"/>
@@ -4585,7 +4711,7 @@
     </row>
     <row r="38" spans="1:12" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="66" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B38" s="63"/>
       <c r="C38" s="63"/>
@@ -4594,17 +4720,19 @@
       <c r="F38" s="127"/>
       <c r="G38" s="127"/>
       <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
+      <c r="I38" s="127">
+        <v>5</v>
+      </c>
       <c r="J38" s="127"/>
       <c r="K38" s="128"/>
       <c r="L38" s="71">
         <f>SUM(E34:K38)/7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="64" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B39" s="65"/>
       <c r="C39" s="65"/>
@@ -4634,7 +4762,7 @@
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
@@ -4644,13 +4772,15 @@
       <c r="G40" s="123"/>
       <c r="H40" s="123"/>
       <c r="I40" s="123"/>
-      <c r="J40" s="123"/>
+      <c r="J40" s="123">
+        <v>6</v>
+      </c>
       <c r="K40" s="124"/>
       <c r="L40" s="75"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B41" s="61"/>
       <c r="C41" s="61"/>
@@ -4660,13 +4790,15 @@
       <c r="G41" s="123"/>
       <c r="H41" s="123"/>
       <c r="I41" s="123"/>
-      <c r="J41" s="123"/>
+      <c r="J41" s="123">
+        <v>6</v>
+      </c>
       <c r="K41" s="124"/>
       <c r="L41" s="75"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B42" s="61"/>
       <c r="C42" s="61"/>
@@ -4674,7 +4806,9 @@
       <c r="E42" s="123"/>
       <c r="F42" s="123"/>
       <c r="G42" s="123"/>
-      <c r="H42" s="123"/>
+      <c r="H42" s="123">
+        <v>4</v>
+      </c>
       <c r="I42" s="123"/>
       <c r="J42" s="123"/>
       <c r="K42" s="124"/>
@@ -4682,7 +4816,7 @@
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B43" s="61"/>
       <c r="C43" s="61"/>
@@ -4691,14 +4825,16 @@
       <c r="F43" s="123"/>
       <c r="G43" s="123"/>
       <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
+      <c r="I43" s="123">
+        <v>5</v>
+      </c>
       <c r="J43" s="123"/>
       <c r="K43" s="124"/>
       <c r="L43" s="75"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="66" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B44" s="63"/>
       <c r="C44" s="63"/>
@@ -4707,32 +4843,34 @@
       <c r="F44" s="127"/>
       <c r="G44" s="127"/>
       <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
+      <c r="I44" s="127">
+        <v>5</v>
+      </c>
       <c r="J44" s="127"/>
       <c r="K44" s="128"/>
       <c r="L44" s="70">
         <f>SUM(E40:K44)/7</f>
-        <v>0</v>
+        <v>3.7142857142857144</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="105"/>
       <c r="D46" s="106"/>
     </row>
-    <row r="47" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="43" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B48" s="166" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C48" s="167"/>
       <c r="D48" s="167"/>
       <c r="E48" s="167"/>
       <c r="F48" s="168"/>
       <c r="G48" s="167" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H48" s="167"/>
       <c r="I48" s="167"/>
@@ -4770,17 +4908,17 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="49" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C51" s="51"/>
       <c r="D51" s="51"/>
       <c r="E51" s="51"/>
       <c r="F51" s="52"/>
       <c r="G51" s="51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H51" s="51"/>
       <c r="I51" s="51"/>
@@ -4790,17 +4928,17 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="49" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C52" s="51"/>
       <c r="D52" s="51"/>
       <c r="E52" s="51"/>
       <c r="F52" s="52"/>
       <c r="G52" s="51" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
@@ -4810,10 +4948,10 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
@@ -4826,19 +4964,19 @@
       <c r="K53" s="51"/>
       <c r="L53" s="52"/>
     </row>
-    <row r="54" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="54"/>
       <c r="C54" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D54" s="56"/>
       <c r="E54" s="56"/>
       <c r="F54" s="57"/>
       <c r="G54" s="56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H54" s="56"/>
       <c r="I54" s="56"/>
@@ -5304,24 +5442,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="3.453125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="2.54296875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="14" customWidth="1"/>
-    <col min="5" max="11" width="4.6328125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="5.36328125" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="9.08984375" style="14"/>
+    <col min="1" max="1" width="31.5546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="2.5546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="14" customWidth="1"/>
+    <col min="5" max="11" width="4.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="169" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B1" s="170"/>
       <c r="C1" s="170"/>
@@ -5337,13 +5475,13 @@
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -5355,13 +5493,13 @@
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -5373,7 +5511,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -5393,9 +5531,9 @@
       <c r="A5" s="10"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:14" s="35" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -5409,14 +5547,14 @@
       <c r="K6" s="33"/>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="1:14" s="35" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
@@ -5427,14 +5565,14 @@
       <c r="K7" s="33"/>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="1:14" s="35" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
@@ -5445,14 +5583,14 @@
       <c r="K8" s="33"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
@@ -5463,14 +5601,14 @@
       <c r="K9" s="33"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="1:14" s="35" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
@@ -5497,13 +5635,13 @@
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="172" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B12" s="173"/>
       <c r="C12" s="173"/>
       <c r="D12" s="174"/>
       <c r="E12" s="163" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F12" s="164"/>
       <c r="G12" s="164"/>
@@ -5512,10 +5650,10 @@
       <c r="J12" s="164"/>
       <c r="K12" s="165"/>
       <c r="L12" s="140" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="35" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="35" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="129">
         <v>1</v>
       </c>
@@ -5628,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="35" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="35" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="143">
         <v>2</v>
       </c>
@@ -6064,20 +6202,20 @@
       <c r="A44" s="105"/>
       <c r="D44" s="106"/>
     </row>
-    <row r="45" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B46" s="166" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C46" s="167"/>
       <c r="D46" s="167"/>
       <c r="E46" s="167"/>
       <c r="F46" s="168"/>
       <c r="G46" s="167" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H46" s="167"/>
       <c r="I46" s="167"/>
@@ -6115,17 +6253,17 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="49" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C49" s="51"/>
       <c r="D49" s="51"/>
       <c r="E49" s="51"/>
       <c r="F49" s="52"/>
       <c r="G49" s="51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H49" s="51"/>
       <c r="I49" s="51"/>
@@ -6135,17 +6273,17 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C50" s="51"/>
       <c r="D50" s="51"/>
       <c r="E50" s="51"/>
       <c r="F50" s="52"/>
       <c r="G50" s="51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51"/>
@@ -6155,10 +6293,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="49" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" s="51"/>
       <c r="D51" s="51"/>
@@ -6171,19 +6309,19 @@
       <c r="K51" s="51"/>
       <c r="L51" s="52"/>
     </row>
-    <row r="52" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D52" s="56"/>
       <c r="E52" s="56"/>
       <c r="F52" s="57"/>
       <c r="G52" s="56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H52" s="56"/>
       <c r="I52" s="56"/>
